--- a/Stocks/MARUTI.xlsx
+++ b/Stocks/MARUTI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>6679.333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>7779.7944000057651</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>7625.2272377115496</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>71.336136372883701</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>9.8999999999996362</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>105</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>9.4285714285710823E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>7515.8786582681505</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>120.96507451902016</v>
       </c>
       <c r="Y67">
         <v>103.52632936821695</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>7649</v>
+      </c>
+      <c r="D83">
+        <v>7649</v>
+      </c>
+      <c r="E83">
+        <v>7568.05</v>
+      </c>
+      <c r="F83">
+        <v>7575.2</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>7597.416666666667</v>
+      </c>
+      <c r="H83">
+        <v>7580.283619095866</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>7642.4081628993517</v>
+      </c>
+      <c r="K83">
+        <v>7527.5407902383504</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>47.701968261806414</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>7.1499999999996362</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>80.949999999999818</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>8.8326127239032146E-2</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>7593.4649682483951</v>
+      </c>
+      <c r="W83">
+        <v>7581.7373976290346</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>11.727570619360449</v>
+      </c>
+      <c r="Y83">
+        <v>34.258984615371013</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>7565</v>
+      </c>
+      <c r="D84">
+        <v>7575.55</v>
+      </c>
+      <c r="E84">
+        <v>7495.05</v>
+      </c>
+      <c r="F84">
+        <v>7507.85</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>7526.1500000000005</v>
+      </c>
+      <c r="H84">
+        <v>7553.2168095479337</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>7627.5507933661629</v>
+      </c>
+      <c r="K84">
+        <v>7520.320614629828</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>36.85556827429599</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>12.800000000000182</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>80.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.15900621118012648</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>7580.2934346717193</v>
+      </c>
+      <c r="W84">
+        <v>7576.2642570639209</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>4.0291776077983741</v>
+      </c>
+      <c r="Y84">
+        <v>28.213023213856484</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>7603</v>
+      </c>
+      <c r="D85">
+        <v>7639.35</v>
+      </c>
+      <c r="E85">
+        <v>7532.5</v>
+      </c>
+      <c r="F85">
+        <v>7559.9</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>7577.25</v>
+      </c>
+      <c r="H85">
+        <v>7565.2334047739669</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>7630.1728392847936</v>
+      </c>
+      <c r="K85">
+        <v>7523.0271447120886</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>48.227657946870615</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>27.399999999999636</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>106.85000000000036</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.25643425362657501</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>7577.1559831837621</v>
+      </c>
+      <c r="W85">
+        <v>7575.0520898740006</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>2.1038933097615882</v>
+      </c>
+      <c r="Y85">
+        <v>22.991197233037504</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>7564.9</v>
+      </c>
+      <c r="D86">
+        <v>7720.4</v>
+      </c>
+      <c r="E86">
+        <v>7532</v>
+      </c>
+      <c r="F86">
+        <v>7720</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>7657.4666666666672</v>
+      </c>
+      <c r="H86">
+        <v>7611.3500357203175</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>7650.2233194437285</v>
+      </c>
+      <c r="K86">
+        <v>7525.0211125538463</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>69.409750079560112</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>188</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>188.39999999999964</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.9978768577494711</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>7599.1319857708759</v>
+      </c>
+      <c r="W86">
+        <v>7585.7889721055562</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>13.343013665319631</v>
+      </c>
+      <c r="Y86">
+        <v>21.061560519493931</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>7747.5</v>
+      </c>
+      <c r="D87">
+        <v>7834.9</v>
+      </c>
+      <c r="E87">
+        <v>7730</v>
+      </c>
+      <c r="F87">
+        <v>7807</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>7790.6333333333341</v>
+      </c>
+      <c r="H87">
+        <v>7700.9916845268253</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>7691.2625817895669</v>
+      </c>
+      <c r="K87">
+        <v>7570.5719764307696</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>76.062338984369617</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>77</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>104.89999999999964</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.73403241182078427</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>7631.1116802676643</v>
+      </c>
+      <c r="W87">
+        <v>7602.1749741718113</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>28.936706095852969</v>
+      </c>
+      <c r="Y87">
+        <v>22.636589634765738</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>7840</v>
+      </c>
+      <c r="D88">
+        <v>7876</v>
+      </c>
+      <c r="E88">
+        <v>7756.75</v>
+      </c>
+      <c r="F88">
+        <v>7804.95</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>7812.5666666666666</v>
+      </c>
+      <c r="H88">
+        <v>7756.7791755967464</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>7732.3153413918853</v>
+      </c>
+      <c r="K88">
+        <v>7611.9448705572649</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>75.578223512033688</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>48.199999999999818</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>119.25</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.4041928721173989</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>7657.8560371495623</v>
+      </c>
+      <c r="W88">
+        <v>7617.1953464553808</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>40.66069069418154</v>
+      </c>
+      <c r="Y88">
+        <v>26.241409846648899</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>7843</v>
+      </c>
+      <c r="D89">
+        <v>7855.95</v>
+      </c>
+      <c r="E89">
+        <v>7801</v>
+      </c>
+      <c r="F89">
+        <v>7817</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>7824.6500000000005</v>
+      </c>
+      <c r="H89">
+        <v>7790.714587798373</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>7759.7897099714664</v>
+      </c>
+      <c r="K89">
+        <v>7653.9571215445394</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>76.669288138411844</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>54.949999999999818</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.29117379435850871</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>7682.3397237419376</v>
+      </c>
+      <c r="W89">
+        <v>7631.9956911623894</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>50.344032579548184</v>
+      </c>
+      <c r="Y89">
+        <v>31.061934393228757</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>7800</v>
+      </c>
+      <c r="D90">
+        <v>7904</v>
+      </c>
+      <c r="E90">
+        <v>7770</v>
+      </c>
+      <c r="F90">
+        <v>7851.35</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>7841.7833333333328</v>
+      </c>
+      <c r="H90">
+        <v>7816.2489605658529</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>7791.836441088918</v>
+      </c>
+      <c r="K90">
+        <v>7679.744427867975</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>79.873308839931497</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>81.350000000000364</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>134</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.60708955223880867</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>7708.3413047047161</v>
+      </c>
+      <c r="W90">
+        <v>7648.2441584836943</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>60.097146221021831</v>
+      </c>
+      <c r="Y90">
+        <v>36.868976758787369</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>7888</v>
+      </c>
+      <c r="D91">
+        <v>7949</v>
+      </c>
+      <c r="E91">
+        <v>7858.5</v>
+      </c>
+      <c r="F91">
+        <v>7920</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>7909.166666666667</v>
+      </c>
+      <c r="H91">
+        <v>7862.70781361626</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>7826.7616764024915</v>
+      </c>
+      <c r="K91">
+        <v>7719.4678883417582</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>85.014487857862392</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>61.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>90.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.6795580110497238</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>7740.9041809039909</v>
+      </c>
+      <c r="W91">
+        <v>7668.3742208182357</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>72.529960085755192</v>
+      </c>
+      <c r="Y91">
+        <v>44.001173424180934</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>7940.45</v>
+      </c>
+      <c r="D92">
+        <v>7979.75</v>
+      </c>
+      <c r="E92">
+        <v>7892</v>
+      </c>
+      <c r="F92">
+        <v>7968</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>7946.583333333333</v>
+      </c>
+      <c r="H92">
+        <v>7904.645573474796</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>7860.7590816463826</v>
+      </c>
+      <c r="K92">
+        <v>7757.808357599145</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>87.74947739256281</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>76</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>87.75</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.86609686609686609</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>7775.8419992264535</v>
+      </c>
+      <c r="W92">
+        <v>7690.5687229798477</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>85.273276246605747</v>
+      </c>
+      <c r="Y92">
+        <v>52.255593988665893</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>7902</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>7925.5</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>7935.9000000000005</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>7946.25</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>8000</v>
+      </c>
+      <c r="D93">
+        <v>8168</v>
+      </c>
+      <c r="E93">
+        <v>8000</v>
+      </c>
+      <c r="F93">
+        <v>8144</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>8104</v>
+      </c>
+      <c r="H93">
+        <v>8004.322786737398</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>7929.0348412805197</v>
+      </c>
+      <c r="K93">
+        <v>7811.628722577113</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>93.329415714214321</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>144</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>168</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>7832.4816916531527</v>
+      </c>
+      <c r="W93">
+        <v>7724.1562249813405</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>108.32546667181214</v>
+      </c>
+      <c r="Y93">
+        <v>63.469568525295145</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>8019.1500000000005</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>8064.2000000000007</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>8084</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>8103.8</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>8192</v>
+      </c>
+      <c r="D94">
+        <v>8192</v>
+      </c>
+      <c r="E94">
+        <v>8116</v>
+      </c>
+      <c r="F94">
+        <v>8136.3</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>8148.0999999999995</v>
+      </c>
+      <c r="H94">
+        <v>8076.2113933686987</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>7987.471543218182</v>
+      </c>
+      <c r="K94">
+        <v>7879.2667842266437</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>91.061139527396378</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>20.300000000000182</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>76</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.26710526315789712</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>7879.2229698603596</v>
+      </c>
+      <c r="W94">
+        <v>7754.6853935012414</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>124.53757635911825</v>
+      </c>
+      <c r="Y94">
+        <v>75.683170092059768</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>8161.9</v>
+      </c>
+      <c r="D95">
+        <v>8200</v>
+      </c>
+      <c r="E95">
+        <v>8100.15</v>
+      </c>
+      <c r="F95">
+        <v>8110.45</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>8136.8666666666659</v>
+      </c>
+      <c r="H95">
+        <v>8106.5390300176823</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>8034.7000891696971</v>
+      </c>
+      <c r="K95">
+        <v>7928.3519432873891</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>82.633369366632763</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>10.300000000000182</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>99.850000000000364</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.10315473209814867</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>7914.7963591126118</v>
+      </c>
+      <c r="W95">
+        <v>7781.0383273159641</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>133.75803179664763</v>
+      </c>
+      <c r="Y95">
+        <v>87.298142432977343</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>8139.95</v>
+      </c>
+      <c r="D96">
+        <v>8164.95</v>
+      </c>
+      <c r="E96">
+        <v>8042.05</v>
+      </c>
+      <c r="F96">
+        <v>8071.3</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>8092.7666666666664</v>
+      </c>
+      <c r="H96">
+        <v>8099.6528483421744</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>8063.644513798653</v>
+      </c>
+      <c r="K96">
+        <v>7953.6181781124142</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>70.313658153072538</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>29.25</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>122.89999999999964</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.23799837266070045</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>7938.8738423260565</v>
+      </c>
+      <c r="W96">
+        <v>7802.5391919592257</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>136.33465036683083</v>
+      </c>
+      <c r="Y96">
+        <v>97.105444019748035</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>8076.95</v>
+      </c>
+      <c r="D97">
+        <v>8119.1</v>
+      </c>
+      <c r="E97">
+        <v>8043.5</v>
+      </c>
+      <c r="F97">
+        <v>8099</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>8087.2</v>
+      </c>
+      <c r="H97">
+        <v>8093.4264241710871</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>8075.9679551767304</v>
+      </c>
+      <c r="K97">
+        <v>7973.5919163096551</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>73.772002371652903</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>55.5</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>75.600000000000364</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.73412698412698063</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>7963.5086358143553</v>
+      </c>
+      <c r="W97">
+        <v>7824.499251814098</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>139.00938400025734</v>
+      </c>
+      <c r="Y97">
+        <v>105.48623201584989</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>8130.7</v>
+      </c>
+      <c r="D98">
+        <v>8185</v>
+      </c>
+      <c r="E98">
+        <v>8130.7</v>
+      </c>
+      <c r="F98">
+        <v>8168</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>8161.2333333333336</v>
+      </c>
+      <c r="H98">
+        <v>8127.3298787522108</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>8100.19729847079</v>
+      </c>
+      <c r="K98">
+        <v>8008.5048237963983</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>80.753429662071028</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>37.300000000000182</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>54.300000000000182</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.68692449355432883</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>7994.9688456890699</v>
+      </c>
+      <c r="W98">
+        <v>7849.9437516797207</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>145.02509400934923</v>
+      </c>
+      <c r="Y98">
+        <v>113.39400441454976</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>8178</v>
+      </c>
+      <c r="D99">
+        <v>8184.95</v>
+      </c>
+      <c r="E99">
+        <v>8124.45</v>
+      </c>
+      <c r="F99">
+        <v>8143.9</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>8151.0999999999995</v>
+      </c>
+      <c r="H99">
+        <v>8139.2149393761047</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>8119.0312321439478</v>
+      </c>
+      <c r="K99">
+        <v>8034.2704185083094</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>72.345855531331424</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>19.449999999999818</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>60.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.32148760330578213</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>8017.8813309676743</v>
+      </c>
+      <c r="W99">
+        <v>7871.7182885923339</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>146.16304237534041</v>
+      </c>
+      <c r="Y99">
+        <v>119.94781200670789</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>8164.4</v>
+      </c>
+      <c r="D100">
+        <v>8164.4</v>
+      </c>
+      <c r="E100">
+        <v>8109.1</v>
+      </c>
+      <c r="F100">
+        <v>8118.5</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>8130.666666666667</v>
+      </c>
+      <c r="H100">
+        <v>8134.9408030213854</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>8129.1131805564037</v>
+      </c>
+      <c r="K100">
+        <v>8050.8992143953519</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>63.619610178014916</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>9.3999999999996362</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>55.299999999999272</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.1699819168173555</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>8033.3611262034165</v>
+      </c>
+      <c r="W100">
+        <v>7889.9984153632722</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>143.36271084014425</v>
+      </c>
+      <c r="Y100">
+        <v>124.63079177339516</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>8101</v>
+      </c>
+      <c r="D101">
+        <v>8170.9</v>
+      </c>
+      <c r="E101">
+        <v>8075.1</v>
+      </c>
+      <c r="F101">
+        <v>8170</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>8138.666666666667</v>
+      </c>
+      <c r="H101">
+        <v>8136.8037348440266</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>8138.399140432758</v>
+      </c>
+      <c r="K101">
+        <v>8056.2771667519401</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>72.137279968484208</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>94.899999999999636</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>95.799999999999272</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.99060542797495155</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>8054.382491402891</v>
+      </c>
+      <c r="W101">
+        <v>7910.7392734845116</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>143.64321791837938</v>
+      </c>
+      <c r="Y101">
+        <v>128.433277002392</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>8145</v>
+      </c>
+      <c r="D102">
+        <v>8175.5</v>
+      </c>
+      <c r="E102">
+        <v>8050</v>
+      </c>
+      <c r="F102">
+        <v>8058</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>8094.5</v>
+      </c>
+      <c r="H102">
+        <v>8115.6518674220133</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>8146.6437758921447</v>
+      </c>
+      <c r="K102">
+        <v>8054.8822408070646</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>44.081173326138831</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>125.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>6.3745019920318724E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>8054.939031187062</v>
+      </c>
+      <c r="W102">
+        <v>7921.6474754486217</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>133.29155573844037</v>
+      </c>
+      <c r="Y102">
+        <v>129.40493274960167</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>8074</v>
+      </c>
+      <c r="D103">
+        <v>8089</v>
+      </c>
+      <c r="E103">
+        <v>7855.05</v>
+      </c>
+      <c r="F103">
+        <v>7978.15</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>7974.0666666666657</v>
+      </c>
+      <c r="H103">
+        <v>8044.8592670443395</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>8133.8340479161125</v>
+      </c>
+      <c r="K103">
+        <v>8010.4750761832729</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>32.735048823821764</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>123.09999999999945</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>233.94999999999982</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.52618080786492649</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>8043.1253340813601</v>
+      </c>
+      <c r="W103">
+        <v>7925.8328476376128</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>117.29248644374729</v>
+      </c>
+      <c r="Y103">
+        <v>126.98244348843079</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>7980</v>
+      </c>
+      <c r="D104">
+        <v>7980.05</v>
+      </c>
+      <c r="E104">
+        <v>7869.1</v>
+      </c>
+      <c r="F104">
+        <v>7879</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>7909.3833333333341</v>
+      </c>
+      <c r="H104">
+        <v>7977.1213001888373</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>8099.6598150458649</v>
+      </c>
+      <c r="K104">
+        <v>7979.0583925869905</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>23.390448063537274</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>9.8999999999996362</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>110.94999999999982</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>8.9229382604773796E-2</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>8017.8752826842274</v>
+      </c>
+      <c r="W104">
+        <v>7922.3637478126047</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>95.511534871622644</v>
+      </c>
+      <c r="Y104">
+        <v>120.68826176506916</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>7967.4000000000005</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>7937.6500000000005</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>7924.6</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>7911.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>7949</v>
+      </c>
+      <c r="D105">
+        <v>7978</v>
+      </c>
+      <c r="E105">
+        <v>7715</v>
+      </c>
+      <c r="F105">
+        <v>7735</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>7809.333333333333</v>
+      </c>
+      <c r="H105">
+        <v>7893.2273167610856</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>8072.6243005912283</v>
+      </c>
+      <c r="K105">
+        <v>7920.3787497898811</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>15.406332535957523</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>263</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>7.6045627376425853E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>7974.3560084251158</v>
+      </c>
+      <c r="W105">
+        <v>7908.4849516783379</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>65.871056746777867</v>
+      </c>
+      <c r="Y105">
+        <v>109.7248207614109</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>7948</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>7877.55</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>7846.5</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>7815.4500000000007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>7735.1</v>
+      </c>
+      <c r="D106">
+        <v>7920</v>
+      </c>
+      <c r="E106">
+        <v>7651</v>
+      </c>
+      <c r="F106">
+        <v>7902.3</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>7824.4333333333334</v>
+      </c>
+      <c r="H106">
+        <v>7858.830325047209</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>8038.7077893487331</v>
+      </c>
+      <c r="K106">
+        <v>7860.5168053921298</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>43.442642080172959</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>251.30000000000018</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>269</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.9342007434944245</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>7963.270468667406</v>
+      </c>
+      <c r="W106">
+        <v>7908.0268071095725</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>55.243661557833548</v>
+      </c>
+      <c r="Y106">
+        <v>98.828588920695424</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>7960</v>
+      </c>
+      <c r="D107">
+        <v>8007.8</v>
+      </c>
+      <c r="E107">
+        <v>7925</v>
+      </c>
+      <c r="F107">
+        <v>7984</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>7972.2666666666664</v>
+      </c>
+      <c r="H107">
+        <v>7915.5484958569377</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>8031.8393917156809</v>
+      </c>
+      <c r="K107">
+        <v>7874.8464041938787</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>52.959453793400776</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>82.800000000000182</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.71256038647342834</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>7966.4596273339594</v>
+      </c>
+      <c r="W107">
+        <v>7913.6544510273816</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>52.805176306577778</v>
+      </c>
+      <c r="Y107">
+        <v>89.623906397871892</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
